--- a/data_group/significance_results_temp_Wilcox_test.xlsx
+++ b/data_group/significance_results_temp_Wilcox_test.xlsx
@@ -365,7 +365,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>CBA_PF_vs_SF_beginning</t>
+          <t>CBA_PF_vs_SF_early</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -380,7 +380,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>EBA_PF_vs_SF_beginning</t>
+          <t>EBA_PF_vs_SF_early</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -395,7 +395,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>SBA_PF_vs_SF_beginning</t>
+          <t>SBA_PF_vs_SF_early</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">

--- a/data_group/significance_results_temp_Wilcox_test.xlsx
+++ b/data_group/significance_results_temp_Wilcox_test.xlsx
@@ -416,31 +416,31 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.01951266891344059</v>
+        <v>0.0872426804026897</v>
       </c>
       <c r="C2">
-        <v>0.006719943911202727</v>
+        <v>0.04609585453406265</v>
       </c>
       <c r="D2">
-        <v>0.2631871988794287</v>
+        <v>0.7023431246253706</v>
       </c>
       <c r="E2">
-        <v>0.2108564745329172</v>
+        <v>0.002160618460454381</v>
       </c>
       <c r="F2">
-        <v>0.2298969410911867</v>
+        <v>0.002160618460454381</v>
       </c>
       <c r="G2">
-        <v>0.001845328844978925</v>
+        <v>7.637202616563032E-06</v>
       </c>
       <c r="H2">
-        <v>0.09716161947915859</v>
+        <v>1.892916849679224E-05</v>
       </c>
       <c r="I2">
-        <v>0.2108564745329172</v>
+        <v>4.328577640269552E-05</v>
       </c>
       <c r="J2">
-        <v>0.01961818728379471</v>
+        <v>4.804394421729966E-06</v>
       </c>
     </row>
     <row r="3">
@@ -450,31 +450,31 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.5009836128501619</v>
+        <v>0.9207120633759399</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.7274510425943561</v>
       </c>
       <c r="D3">
-        <v>0.1183711292533826</v>
+        <v>0.04406259695751572</v>
       </c>
       <c r="E3">
-        <v>0.04069643057017976</v>
+        <v>0.0005333512125552768</v>
       </c>
       <c r="F3">
-        <v>0.03819967479229508</v>
+        <v>0.0002749231270493849</v>
       </c>
       <c r="G3">
-        <v>0.0006062950929227467</v>
+        <v>1.364679054297243E-06</v>
       </c>
       <c r="H3">
-        <v>0.08259208882034763</v>
+        <v>0.0003444328727989022</v>
       </c>
       <c r="I3">
-        <v>0.03146078429715132</v>
+        <v>0.0001943367091634814</v>
       </c>
       <c r="J3">
-        <v>0.001234948335733806</v>
+        <v>2.300902334756376E-06</v>
       </c>
     </row>
     <row r="4">
@@ -484,31 +484,31 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.5836759344075709</v>
+        <v>0.3557407277454414</v>
       </c>
       <c r="C4">
-        <v>0.239852596858555</v>
+        <v>0.1458587718157973</v>
       </c>
       <c r="D4">
-        <v>0.01073733790341331</v>
+        <v>0.0039119296656657</v>
       </c>
       <c r="E4">
-        <v>0.01258972032513271</v>
+        <v>0.0001358787181257535</v>
       </c>
       <c r="F4">
-        <v>0.0169118977766385</v>
+        <v>0.000218419400036302</v>
       </c>
       <c r="G4">
-        <v>0.0009351784345881225</v>
+        <v>6.075106314360501E-06</v>
       </c>
       <c r="H4">
-        <v>0.1530448937987301</v>
+        <v>0.005697393025955338</v>
       </c>
       <c r="I4">
-        <v>0.01167182887298439</v>
+        <v>0.0005933359996493653</v>
       </c>
       <c r="J4">
-        <v>0.0008111779887182508</v>
+        <v>1.821928435471758E-05</v>
       </c>
     </row>
     <row r="5">
@@ -518,31 +518,31 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.5498622643317999</v>
+        <v>0.4104217465872398</v>
       </c>
       <c r="C5">
-        <v>0.1258148191672185</v>
+        <v>0.06980961670666386</v>
       </c>
       <c r="D5">
-        <v>0.002101361773831042</v>
+        <v>0.001845328844978925</v>
       </c>
       <c r="E5">
-        <v>0.01461387898167541</v>
+        <v>0.0009951108482291356</v>
       </c>
       <c r="F5">
-        <v>0.01167182887298439</v>
+        <v>0.0004789123656912421</v>
       </c>
       <c r="G5">
-        <v>0.001075781757215234</v>
+        <v>4.066795306848904E-05</v>
       </c>
       <c r="H5">
-        <v>0.3557407277454414</v>
+        <v>0.05528795346461257</v>
       </c>
       <c r="I5">
-        <v>0.03583144753073163</v>
+        <v>0.002160618460454381</v>
       </c>
       <c r="J5">
-        <v>0.001617355027850918</v>
+        <v>4.066795306848904E-05</v>
       </c>
     </row>
     <row r="6">
@@ -552,31 +552,31 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.3301725912712316</v>
+        <v>0.2940628002603309</v>
       </c>
       <c r="C6">
-        <v>0.07814007473603325</v>
+        <v>0.04900887783470882</v>
       </c>
       <c r="D6">
-        <v>0.001845328844978925</v>
+        <v>0.001234948335733806</v>
       </c>
       <c r="E6">
-        <v>0.03358677936817663</v>
+        <v>0.01081242974857537</v>
       </c>
       <c r="F6">
-        <v>0.03358677936817663</v>
+        <v>0.007899885422807675</v>
       </c>
       <c r="G6">
-        <v>0.001234948335733806</v>
+        <v>0.0004490138922258726</v>
       </c>
       <c r="H6">
-        <v>0.7842459577450265</v>
+        <v>0.7088236236598326</v>
       </c>
       <c r="I6">
-        <v>0.2714864292585267</v>
+        <v>0.107940572188464</v>
       </c>
       <c r="J6">
-        <v>0.02600699995008533</v>
+        <v>0.009660057844115721</v>
       </c>
     </row>
     <row r="7">
